--- a/Peaks_Month.xlsx
+++ b/Peaks_Month.xlsx
@@ -16,7 +16,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
-    <t>Peak Loads for February 2023 (Mthembanji)</t>
+    <t>Peak Loads for April 2023 (Mthembanji)</t>
   </si>
   <si>
     <t>Day</t>
@@ -368,7 +368,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -394,7 +394,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.3614489085</v>
+        <v>1.6269920696</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -402,7 +402,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.2729952778</v>
+        <v>1.4698963192</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -410,7 +410,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.3840089885</v>
+        <v>1.4839162973</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -418,7 +418,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.2892532939</v>
+        <v>1.3275653985</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -426,7 +426,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.3583622221</v>
+        <v>1.4563175001</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -434,7 +434,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.3238447323</v>
+        <v>1.6308854662</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -442,7 +442,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.2468574433</v>
+        <v>1.3442781248</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -450,7 +450,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.3482292789</v>
+        <v>1.358</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -458,7 +458,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.4313720818</v>
+        <v>1.3219699985</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -466,15 +466,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.4873966665</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13">
-        <v>11</v>
-      </c>
-      <c r="B13">
-        <v>1.4914065273</v>
+        <v>0.521</v>
       </c>
     </row>
   </sheetData>

--- a/Peaks_Month.xlsx
+++ b/Peaks_Month.xlsx
@@ -16,7 +16,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
-    <t>Peak Loads for April 2023 (Mthembanji)</t>
+    <t>Peak Loads for March 2025 (Mthembanji)</t>
   </si>
   <si>
     <t>Day</t>
@@ -368,7 +368,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -394,7 +394,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.6269920696</v>
+        <v>2.0015744166</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -402,7 +402,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.4698963192</v>
+        <v>2.0794223832</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -410,63 +410,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.4839162973</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6">
-        <v>4</v>
-      </c>
-      <c r="B6">
-        <v>1.3275653985</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7">
-        <v>5</v>
-      </c>
-      <c r="B7">
-        <v>1.4563175001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8">
-        <v>6</v>
-      </c>
-      <c r="B8">
-        <v>1.6308854662</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9">
-        <v>7</v>
-      </c>
-      <c r="B9">
-        <v>1.3442781248</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10">
-        <v>8</v>
-      </c>
-      <c r="B10">
-        <v>1.358</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11">
-        <v>9</v>
-      </c>
-      <c r="B11">
-        <v>1.3219699985</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12">
-        <v>10</v>
-      </c>
-      <c r="B12">
-        <v>0.521</v>
+        <v>0.709</v>
       </c>
     </row>
   </sheetData>
